--- a/Excel-XLSX/UN-BLR.xlsx
+++ b/Excel-XLSX/UN-BLR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="665">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>QN0tfZ</t>
+    <t>JUOa38</t>
   </si>
   <si>
     <t>1994</t>
@@ -1986,21 +1986,15 @@
     <t>418</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>GFR</t>
-  </si>
-  <si>
-    <t>DEU</t>
-  </si>
-  <si>
     <t>419</t>
   </si>
   <si>
     <t>420</t>
   </si>
   <si>
+    <t>5620</t>
+  </si>
+  <si>
     <t>421</t>
   </si>
   <si>
@@ -2010,37 +2004,13 @@
     <t>423</t>
   </si>
   <si>
+    <t>43114</t>
+  </si>
+  <si>
+    <t>1199</t>
+  </si>
+  <si>
     <t>425</t>
-  </si>
-  <si>
-    <t>5506</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>48179</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>432</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2395,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V433"/>
+  <dimension ref="A1:V426"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -30286,7 +30256,7 @@
         <v>30</v>
       </c>
       <c r="N410" s="2" t="s">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="O410" s="2" t="s">
         <v>52</v>
@@ -30398,16 +30368,16 @@
         <v>647</v>
       </c>
       <c r="F412" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>619</v>
+        <v>207</v>
       </c>
       <c r="H412" s="1" t="s">
-        <v>620</v>
+        <v>208</v>
       </c>
       <c r="I412" s="1" t="s">
-        <v>620</v>
+        <v>208</v>
       </c>
       <c r="J412" s="2" t="s">
         <v>28</v>
@@ -30422,10 +30392,10 @@
         <v>30</v>
       </c>
       <c r="N412" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="O412" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P412" s="2" t="s">
         <v>32</v>
@@ -30466,16 +30436,16 @@
         <v>647</v>
       </c>
       <c r="F413" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>207</v>
+        <v>35</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="I413" s="1" t="s">
-        <v>208</v>
+        <v>36</v>
       </c>
       <c r="J413" s="2" t="s">
         <v>28</v>
@@ -30534,16 +30504,16 @@
         <v>647</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>509</v>
+        <v>40</v>
       </c>
       <c r="H414" s="1" t="s">
-        <v>510</v>
+        <v>41</v>
       </c>
       <c r="I414" s="1" t="s">
-        <v>510</v>
+        <v>42</v>
       </c>
       <c r="J414" s="2" t="s">
         <v>28</v>
@@ -30558,10 +30528,10 @@
         <v>30</v>
       </c>
       <c r="N414" s="2" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="O414" s="2" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="P414" s="2" t="s">
         <v>32</v>
@@ -30602,16 +30572,16 @@
         <v>647</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="H415" s="1" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
       <c r="I415" s="1" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="J415" s="2" t="s">
         <v>28</v>
@@ -30626,10 +30596,10 @@
         <v>30</v>
       </c>
       <c r="N415" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O415" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P415" s="2" t="s">
         <v>32</v>
@@ -30670,16 +30640,16 @@
         <v>647</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="H416" s="1" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="I416" s="1" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="J416" s="2" t="s">
         <v>28</v>
@@ -30694,10 +30664,10 @@
         <v>30</v>
       </c>
       <c r="N416" s="2" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="O416" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P416" s="2" t="s">
         <v>32</v>
@@ -30738,16 +30708,16 @@
         <v>647</v>
       </c>
       <c r="F417" s="2" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>597</v>
+        <v>49</v>
       </c>
       <c r="H417" s="1" t="s">
-        <v>598</v>
+        <v>50</v>
       </c>
       <c r="I417" s="1" t="s">
-        <v>598</v>
+        <v>50</v>
       </c>
       <c r="J417" s="2" t="s">
         <v>28</v>
@@ -30806,16 +30776,16 @@
         <v>647</v>
       </c>
       <c r="F418" s="2" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>120</v>
+        <v>432</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>121</v>
+        <v>433</v>
       </c>
       <c r="I418" s="1" t="s">
-        <v>121</v>
+        <v>434</v>
       </c>
       <c r="J418" s="2" t="s">
         <v>28</v>
@@ -30830,7 +30800,7 @@
         <v>30</v>
       </c>
       <c r="N418" s="2" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="O418" s="2" t="s">
         <v>32</v>
@@ -30874,16 +30844,16 @@
         <v>647</v>
       </c>
       <c r="F419" s="2" t="s">
-        <v>237</v>
+        <v>151</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>656</v>
+        <v>152</v>
       </c>
       <c r="H419" s="1" t="s">
-        <v>657</v>
+        <v>153</v>
       </c>
       <c r="I419" s="1" t="s">
-        <v>658</v>
+        <v>153</v>
       </c>
       <c r="J419" s="2" t="s">
         <v>28</v>
@@ -30898,7 +30868,7 @@
         <v>30</v>
       </c>
       <c r="N419" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="O419" s="2" t="s">
         <v>43</v>
@@ -30936,22 +30906,22 @@
         <v>22</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F420" s="2" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="I420" s="1" t="s">
-        <v>47</v>
+        <v>163</v>
       </c>
       <c r="J420" s="2" t="s">
         <v>28</v>
@@ -30966,7 +30936,7 @@
         <v>30</v>
       </c>
       <c r="N420" s="2" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="O420" s="2" t="s">
         <v>32</v>
@@ -31004,22 +30974,22 @@
         <v>22</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E421" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>48</v>
+        <v>249</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>50</v>
+        <v>251</v>
       </c>
       <c r="I421" s="1" t="s">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="J421" s="2" t="s">
         <v>28</v>
@@ -31034,10 +31004,10 @@
         <v>30</v>
       </c>
       <c r="N421" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O421" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="P421" s="2" t="s">
         <v>32</v>
@@ -31049,7 +31019,7 @@
         <v>32</v>
       </c>
       <c r="S421" s="2" t="s">
-        <v>32</v>
+        <v>658</v>
       </c>
       <c r="T421" s="2" t="s">
         <v>32</v>
@@ -31072,22 +31042,22 @@
         <v>22</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="E422" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F422" s="2" t="s">
-        <v>141</v>
+        <v>226</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="I422" s="1" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="J422" s="2" t="s">
         <v>28</v>
@@ -31102,7 +31072,7 @@
         <v>30</v>
       </c>
       <c r="N422" s="2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O422" s="2" t="s">
         <v>43</v>
@@ -31140,22 +31110,22 @@
         <v>22</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E423" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F423" s="2" t="s">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>432</v>
+        <v>174</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>433</v>
+        <v>175</v>
       </c>
       <c r="I423" s="1" t="s">
-        <v>434</v>
+        <v>175</v>
       </c>
       <c r="J423" s="2" t="s">
         <v>28</v>
@@ -31170,7 +31140,7 @@
         <v>30</v>
       </c>
       <c r="N423" s="2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="O423" s="2" t="s">
         <v>32</v>
@@ -31208,22 +31178,22 @@
         <v>22</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E424" s="2" t="s">
         <v>647</v>
       </c>
       <c r="F424" s="2" t="s">
-        <v>151</v>
+        <v>382</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="I424" s="1" t="s">
-        <v>153</v>
+        <v>499</v>
       </c>
       <c r="J424" s="2" t="s">
         <v>28</v>
@@ -31238,10 +31208,10 @@
         <v>30</v>
       </c>
       <c r="N424" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="O424" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P424" s="2" t="s">
         <v>32</v>
@@ -31282,16 +31252,16 @@
         <v>647</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="I425" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="J425" s="2" t="s">
         <v>28</v>
@@ -31306,10 +31276,10 @@
         <v>30</v>
       </c>
       <c r="N425" s="2" t="s">
-        <v>62</v>
+        <v>662</v>
       </c>
       <c r="O425" s="2" t="s">
-        <v>43</v>
+        <v>663</v>
       </c>
       <c r="P425" s="2" t="s">
         <v>32</v>
@@ -31350,16 +31320,16 @@
         <v>647</v>
       </c>
       <c r="F426" s="2" t="s">
-        <v>63</v>
+        <v>398</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>64</v>
+        <v>461</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>65</v>
+        <v>462</v>
       </c>
       <c r="I426" s="1" t="s">
-        <v>65</v>
+        <v>462</v>
       </c>
       <c r="J426" s="2" t="s">
         <v>28</v>
@@ -31374,10 +31344,10 @@
         <v>30</v>
       </c>
       <c r="N426" s="2" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="O426" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="P426" s="2" t="s">
         <v>32</v>
@@ -31398,482 +31368,6 @@
         <v>33</v>
       </c>
       <c r="V426" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B427" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E427" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F427" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G427" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="H427" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I427" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J427" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K427" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L427" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M427" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S427" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="T427" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U427" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V427" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E428" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G428" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I428" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J428" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K428" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L428" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M428" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O428" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T428" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U428" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V428" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E429" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F429" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G429" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="H429" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I429" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="J429" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K429" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L429" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M429" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N429" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O429" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="P429" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q429" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R429" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S429" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T429" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U429" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V429" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="E430" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G430" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H430" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I430" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J430" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K430" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L430" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M430" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N430" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T430" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U430" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V430" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="E431" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="G431" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H431" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="I431" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="J431" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K431" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L431" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M431" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N431" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T431" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U431" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V431" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="E432" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F432" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G432" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H432" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="I432" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J432" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K432" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L432" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M432" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N432" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="O432" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P432" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q432" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R432" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S432" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T432" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U432" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V432" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="E433" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="G433" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="H433" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="I433" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="J433" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K433" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L433" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M433" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N433" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O433" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P433" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q433" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R433" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S433" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T433" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U433" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V433" s="2" t="s">
         <v>32</v>
       </c>
     </row>
